--- a/Performance Data.xlsx
+++ b/Performance Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Improvement</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Overall</t>
+  </si>
+  <si>
+    <t>Particles</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>LIDAR</t>
   </si>
 </sst>
 </file>
@@ -113,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -132,6 +144,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,6 +162,1269 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C495-4F13-9CFC-7C2E34828556}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C495-4F13-9CFC-7C2E34828556}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LIDAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C495-4F13-9CFC-7C2E34828556}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="460187752"/>
+        <c:axId val="460186112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="460187752"/>
+        <c:scaling>
+          <c:logBase val="5"/>
+          <c:orientation val="minMax"/>
+          <c:max val="31250"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Particle Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460186112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="460186112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rate (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460187752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990599</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:J8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +1739,19 @@
     <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -469,7 +1759,19 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>128</v>
+      </c>
+      <c r="C2">
+        <v>250</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -485,7 +1787,19 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2" t="s">
         <v>3</v>
@@ -502,7 +1816,19 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>250</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="3" t="s">
         <v>4</v>
@@ -519,7 +1845,19 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1250</v>
+      </c>
+      <c r="B5">
+        <v>3.7</v>
+      </c>
+      <c r="C5">
+        <v>230</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
         <v>5</v>
@@ -536,7 +1874,20 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5*5</f>
+        <v>6250</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>145</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="7" t="s">
         <v>6</v>
@@ -553,7 +1904,20 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>A6*5</f>
+        <v>31250</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2" t="s">
         <v>8</v>
@@ -572,7 +1936,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -581,5 +1945,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>